--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.082925</v>
+        <v>0.1993696666666667</v>
       </c>
       <c r="H2">
-        <v>0.248775</v>
+        <v>0.598109</v>
       </c>
       <c r="I2">
-        <v>0.003066867285585202</v>
+        <v>0.007341795645341</v>
       </c>
       <c r="J2">
-        <v>0.003066867285585203</v>
+        <v>0.007341795645341001</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N2">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O2">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P2">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q2">
-        <v>0.002079067958333334</v>
+        <v>0.008282081779555556</v>
       </c>
       <c r="R2">
-        <v>0.018711611625</v>
+        <v>0.074538736016</v>
       </c>
       <c r="S2">
-        <v>4.663701788672166E-06</v>
+        <v>1.847998833281005E-05</v>
       </c>
       <c r="T2">
-        <v>4.663701788672168E-06</v>
+        <v>1.847998833281005E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.082925</v>
+        <v>0.1993696666666667</v>
       </c>
       <c r="H3">
-        <v>0.248775</v>
+        <v>0.598109</v>
       </c>
       <c r="I3">
-        <v>0.003066867285585202</v>
+        <v>0.007341795645341</v>
       </c>
       <c r="J3">
-        <v>0.003066867285585203</v>
+        <v>0.007341795645341001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>40.267417</v>
       </c>
       <c r="O3">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P3">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q3">
-        <v>1.113058518241667</v>
+        <v>2.676033834939222</v>
       </c>
       <c r="R3">
-        <v>10.017526664175</v>
+        <v>24.084304514453</v>
       </c>
       <c r="S3">
-        <v>0.002496778896338603</v>
+        <v>0.005971092216205523</v>
       </c>
       <c r="T3">
-        <v>0.002496778896338603</v>
+        <v>0.005971092216205525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.082925</v>
+        <v>0.1993696666666667</v>
       </c>
       <c r="H4">
-        <v>0.248775</v>
+        <v>0.598109</v>
       </c>
       <c r="I4">
-        <v>0.003066867285585202</v>
+        <v>0.007341795645341</v>
       </c>
       <c r="J4">
-        <v>0.003066867285585203</v>
+        <v>0.007341795645341001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.119026</v>
       </c>
       <c r="O4">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P4">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q4">
-        <v>0.2520650770166666</v>
+        <v>0.6060190579815555</v>
       </c>
       <c r="R4">
-        <v>2.26858569315</v>
+        <v>5.454171521834</v>
       </c>
       <c r="S4">
-        <v>0.0005654246874579271</v>
+        <v>0.001352223440802666</v>
       </c>
       <c r="T4">
-        <v>0.0005654246874579273</v>
+        <v>0.001352223440802667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>52.986228</v>
       </c>
       <c r="I5">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123248</v>
       </c>
       <c r="J5">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123249</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N5">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O5">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P5">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q5">
-        <v>0.4428176821133333</v>
+        <v>0.7337061864746666</v>
       </c>
       <c r="R5">
-        <v>3.98535913902</v>
+        <v>6.603355678272</v>
       </c>
       <c r="S5">
-        <v>0.00099331510922959</v>
+        <v>0.001637134494280496</v>
       </c>
       <c r="T5">
-        <v>0.00099331510922959</v>
+        <v>0.001637134494280496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>52.986228</v>
       </c>
       <c r="I6">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123248</v>
       </c>
       <c r="J6">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>40.267417</v>
       </c>
       <c r="O6">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P6">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q6">
         <v>237.0687264592306</v>
@@ -818,10 +818,10 @@
         <v>2133.618538133076</v>
       </c>
       <c r="S6">
-        <v>0.5317853315927467</v>
+        <v>0.5289765804843115</v>
       </c>
       <c r="T6">
-        <v>0.5317853315927469</v>
+        <v>0.5289765804843118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>52.986228</v>
       </c>
       <c r="I7">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123248</v>
       </c>
       <c r="J7">
-        <v>0.653207634367435</v>
+        <v>0.6504066282123249</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.119026</v>
       </c>
       <c r="O7">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P7">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q7">
         <v>53.68697675265867</v>
@@ -880,10 +880,10 @@
         <v>483.182790773928</v>
       </c>
       <c r="S7">
-        <v>0.1204289876654586</v>
+        <v>0.1197929132337326</v>
       </c>
       <c r="T7">
-        <v>0.1204289876654586</v>
+        <v>0.1197929132337326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>27.881973</v>
       </c>
       <c r="I8">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="J8">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N8">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O8">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P8">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q8">
-        <v>0.233015844355</v>
+        <v>0.386084778128</v>
       </c>
       <c r="R8">
-        <v>2.097142599195</v>
+        <v>3.474763003152</v>
       </c>
       <c r="S8">
-        <v>0.0005226940301549957</v>
+        <v>0.0008614793218890285</v>
       </c>
       <c r="T8">
-        <v>0.0005226940301549958</v>
+        <v>0.0008614793218890285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>27.881973</v>
       </c>
       <c r="I9">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="J9">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>40.267417</v>
       </c>
       <c r="O9">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P9">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q9">
         <v>124.748337063749</v>
@@ -1004,10 +1004,10 @@
         <v>1122.735033573741</v>
       </c>
       <c r="S9">
-        <v>0.2798316622437251</v>
+        <v>0.2783536645540404</v>
       </c>
       <c r="T9">
-        <v>0.2798316622437252</v>
+        <v>0.2783536645540405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>27.881973</v>
       </c>
       <c r="I10">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="J10">
-        <v>0.3437254983469798</v>
+        <v>0.3422515761423342</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.119026</v>
       </c>
       <c r="O10">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P10">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q10">
         <v>28.250715190922</v>
@@ -1066,10 +1066,10 @@
         <v>254.256436718298</v>
       </c>
       <c r="S10">
-        <v>0.06337114207309964</v>
+        <v>0.06303643226640469</v>
       </c>
       <c r="T10">
-        <v>0.06337114207309964</v>
+        <v>0.06303643226640471</v>
       </c>
     </row>
   </sheetData>
